--- a/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -229,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -522,19 +528,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -545,16 +551,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -568,7 +574,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -577,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -591,7 +597,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -600,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -614,7 +620,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -623,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -637,19 +643,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -660,7 +666,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -669,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -683,19 +689,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -706,13 +712,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -724,6 +730,29 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="53">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -235,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -528,19 +522,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -551,16 +545,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -574,7 +568,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -583,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -606,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -620,7 +614,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -629,10 +623,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -643,19 +637,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -675,10 +669,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -689,19 +683,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -712,13 +706,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -730,29 +724,6 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_998_4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Evento da annotare</t>
@@ -235,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -551,19 +557,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -574,16 +580,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -597,7 +603,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -606,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -620,7 +626,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -629,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -643,7 +649,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -652,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -666,19 +672,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -689,7 +695,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -698,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -712,19 +718,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -735,13 +741,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -753,6 +759,29 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
